--- a/main/myExample.xlsx
+++ b/main/myExample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ספיר יהודה\Satellite-communication\main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{850A5D49-001E-4C52-AC92-2B64B785D43B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D77C6E50-DEA8-47ED-93A5-63E0DF8E2510}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="1100" windowWidth="14400" windowHeight="7360" activeTab="1" xr2:uid="{9B722E9E-E704-4A64-914F-3A2EF2419D5A}"/>
   </bookViews>

--- a/main/myExample.xlsx
+++ b/main/myExample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ספיר יהודה\Satellite-communication\main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D77C6E50-DEA8-47ED-93A5-63E0DF8E2510}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{436C873C-E257-49A4-A28B-68C484425DA8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="1100" windowWidth="14400" windowHeight="7360" activeTab="1" xr2:uid="{9B722E9E-E704-4A64-914F-3A2EF2419D5A}"/>
   </bookViews>

--- a/main/myExample.xlsx
+++ b/main/myExample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ספיר יהודה\Satellite-communication\main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{436C873C-E257-49A4-A28B-68C484425DA8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E8EDBE0-48C1-4E92-8F41-D43EBF4B685C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="1100" windowWidth="14400" windowHeight="7360" activeTab="1" xr2:uid="{9B722E9E-E704-4A64-914F-3A2EF2419D5A}"/>
   </bookViews>

--- a/main/myExample.xlsx
+++ b/main/myExample.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ספיר יהודה\Satellite-communication\main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E8EDBE0-48C1-4E92-8F41-D43EBF4B685C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75C794C2-F338-44A9-B5FF-827A58550FBA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="1100" windowWidth="14400" windowHeight="7360" activeTab="1" xr2:uid="{9B722E9E-E704-4A64-914F-3A2EF2419D5A}"/>
   </bookViews>
